--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>112978.680542797</v>
+        <v>111478.1940564122</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23511606.65325126</v>
+        <v>23347074.56340345</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8806943.246650698</v>
+        <v>8645685.345390849</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4963291.703156746</v>
+        <v>5017327.988107468</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>374.4268935289279</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -713,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>49.82206968889088</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -817,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -826,10 +828,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>97.39852001520045</v>
       </c>
       <c r="G4" t="n">
-        <v>99.63716128880068</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -871,13 +873,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -902,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>215.2285648127964</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>47.15016546971378</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -1051,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>106.0626366504663</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1142,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>74.47479140598074</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>9.464195197477146</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1291,16 +1293,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>141.3076780977018</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>78.05983072375</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1345,7 +1347,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1373,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>214.8159433336649</v>
+        <v>24.3683102179066</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1424,13 +1426,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1537,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>20.97478045648731</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1576,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>29.41206276533536</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1604,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1625,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1670,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>400.9262765069321</v>
       </c>
       <c r="Y14" t="n">
-        <v>402.8910785008891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1765,16 +1767,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1816,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>113.8296655637141</v>
+        <v>159.582856075998</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1828,10 +1830,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1850,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1898,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>67.65538200560648</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>120.122206759728</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -1999,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>106.0626366504663</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>240.273786227905</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2081,25 +2083,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>10.65038347556986</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>54.14078383575751</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2251,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022953</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2315,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>431.5506869772999</v>
@@ -2330,10 +2332,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>397.3838530629687</v>
+        <v>131.1678547432281</v>
       </c>
       <c r="H23" t="n">
-        <v>120.3904802124678</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2384,7 +2386,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2488,7 +2490,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022953</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2552,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>111.3511830509911</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
-        <v>256.4924966520963</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
         <v>0.4126214791313976</v>
@@ -2603,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2728,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2770,10 +2772,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>187.5234134555184</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
@@ -2801,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2849,13 +2851,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
-        <v>322.2439590732708</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>125.2558025085181</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2965,7 +2967,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>18.05677735225758</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3026,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>204.6481106064103</v>
+        <v>273.6731580557692</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,19 +3085,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>18.05677735225706</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3263,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3275,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>53.45493389830298</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>397.3838530629687</v>
@@ -3284,7 +3286,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
         <v>256.6300796561533</v>
@@ -3326,13 +3328,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>235.0059606213452</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3439,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>18.05677735225757</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3500,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>158.5152792571844</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3560,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>82.77088118596852</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -3673,7 +3675,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225706</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>56.84518929254141</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3755,7 +3757,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3803,10 +3805,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>155.9995894427411</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3898,13 +3900,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>60.80118788412234</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3913,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>18.05677735225757</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3977,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3986,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>8.426406635551132</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
@@ -4028,7 +4030,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4037,13 +4039,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>106.2274833598406</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4144,13 +4146,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>93.98724007440744</v>
+        <v>46.47710458853181</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4195,10 +4197,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33.94366860160834</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C2" t="n">
-        <v>33.94366860160834</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="D2" t="n">
-        <v>33.94366860160834</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="E2" t="n">
-        <v>33.94366860160834</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F2" t="n">
         <v>33.94366860160834</v>
@@ -4328,19 +4330,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>267.8706684926505</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
         <v>687.9235674375537</v>
@@ -4361,19 +4363,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1646.858107162346</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1284.241157096172</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>879.3857025072055</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X2" t="n">
-        <v>460.2432390865162</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y2" t="n">
-        <v>460.2432390865162</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,37 +4397,37 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>778.554892512724</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1198.607791457627</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>646.930316449007</v>
+        <v>640.5237201158209</v>
       </c>
       <c r="C4" t="n">
-        <v>646.930316449007</v>
+        <v>467.9620085990458</v>
       </c>
       <c r="D4" t="n">
-        <v>481.0523236505297</v>
+        <v>302.0840158005685</v>
       </c>
       <c r="E4" t="n">
-        <v>311.294319901267</v>
+        <v>132.3260120513058</v>
       </c>
       <c r="F4" t="n">
-        <v>134.5872658630232</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
         <v>33.94366860160834</v>
@@ -4486,16 +4488,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>1233.544589050298</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
         <v>1277.514180854636</v>
@@ -4519,19 +4521,19 @@
         <v>1451.303983658873</v>
       </c>
       <c r="U4" t="n">
-        <v>1451.303983658873</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V4" t="n">
-        <v>1164.348475529303</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W4" t="n">
-        <v>892.3220711155946</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="X4" t="n">
-        <v>646.930316449007</v>
+        <v>640.5237201158209</v>
       </c>
       <c r="Y4" t="n">
-        <v>646.930316449007</v>
+        <v>640.5237201158209</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33.94366860160834</v>
+        <v>462.9421322372</v>
       </c>
       <c r="C5" t="n">
-        <v>33.94366860160834</v>
+        <v>462.9421322372</v>
       </c>
       <c r="D5" t="n">
-        <v>33.94366860160834</v>
+        <v>462.9421322372</v>
       </c>
       <c r="E5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I5" t="n">
         <v>33.94366860160834</v>
@@ -4595,22 +4597,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T5" t="n">
-        <v>1479.780839360421</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U5" t="n">
-        <v>1220.558536677438</v>
+        <v>1649.55700031303</v>
       </c>
       <c r="V5" t="n">
-        <v>857.9415866112644</v>
+        <v>1286.940050246856</v>
       </c>
       <c r="W5" t="n">
-        <v>453.0861320222976</v>
+        <v>882.0845956578893</v>
       </c>
       <c r="X5" t="n">
-        <v>33.94366860160834</v>
+        <v>462.9421322372</v>
       </c>
       <c r="Y5" t="n">
-        <v>33.94366860160834</v>
+        <v>462.9421322372</v>
       </c>
     </row>
     <row r="6">
@@ -4635,31 +4637,31 @@
         <v>161.064410519212</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160836</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206596</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J6" t="n">
         <v>384.5656667282782</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P6" t="n">
         <v>1159.957753041174</v>
@@ -4699,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.94366860160834</v>
+        <v>141.0776450162207</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>141.0776450162207</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>141.0776450162207</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>141.0776450162207</v>
       </c>
       <c r="F7" t="n">
         <v>33.94366860160834</v>
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>435.3414999783445</v>
+        <v>863.6257189419966</v>
       </c>
       <c r="C8" t="n">
-        <v>435.3414999783445</v>
+        <v>863.6257189419966</v>
       </c>
       <c r="D8" t="n">
-        <v>435.3414999783445</v>
+        <v>863.6257189419966</v>
       </c>
       <c r="E8" t="n">
-        <v>435.3414999783445</v>
+        <v>863.6257189419966</v>
       </c>
       <c r="F8" t="n">
-        <v>435.3414999783445</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I8" t="n">
         <v>33.94366860160834</v>
@@ -4808,13 +4810,13 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>437.0247332457074</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="N8" t="n">
-        <v>1294.102365436318</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="O8" t="n">
         <v>1697.183430080417</v>
@@ -4835,19 +4837,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U8" t="n">
-        <v>1621.956368054174</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V8" t="n">
-        <v>1259.339417988001</v>
+        <v>1687.623636951653</v>
       </c>
       <c r="W8" t="n">
-        <v>854.4839633990338</v>
+        <v>1282.768182362686</v>
       </c>
       <c r="X8" t="n">
-        <v>435.3414999783445</v>
+        <v>863.6257189419966</v>
       </c>
       <c r="Y8" t="n">
-        <v>435.3414999783445</v>
+        <v>863.6257189419966</v>
       </c>
     </row>
     <row r="9">
@@ -4860,7 +4862,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D9" t="n">
         <v>338.5686635760967</v>
@@ -4869,10 +4871,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H9" t="n">
         <v>33.94366860160834</v>
@@ -4884,13 +4886,13 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K9" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L9" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M9" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N9" t="n">
         <v>804.6185656731816</v>
@@ -4936,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>176.6786969831253</v>
+        <v>455.1116977300199</v>
       </c>
       <c r="C10" t="n">
-        <v>176.6786969831253</v>
+        <v>282.5499862132448</v>
       </c>
       <c r="D10" t="n">
-        <v>176.6786969831253</v>
+        <v>282.5499862132448</v>
       </c>
       <c r="E10" t="n">
-        <v>33.94366860160834</v>
+        <v>112.7919824639821</v>
       </c>
       <c r="F10" t="n">
         <v>33.94366860160834</v>
@@ -4969,10 +4971,10 @@
         <v>452.1535503695694</v>
       </c>
       <c r="M10" t="n">
-        <v>872.2064493144727</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N10" t="n">
-        <v>1292.259348259376</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O10" t="n">
         <v>1697.183430080417</v>
@@ -4993,19 +4995,19 @@
         <v>1451.303983658873</v>
       </c>
       <c r="U10" t="n">
-        <v>1172.870982911978</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="V10" t="n">
-        <v>885.9154747824084</v>
+        <v>1164.348475529303</v>
       </c>
       <c r="W10" t="n">
-        <v>613.8890703687</v>
+        <v>892.3220711155946</v>
       </c>
       <c r="X10" t="n">
-        <v>368.4973157021125</v>
+        <v>646.930316449007</v>
       </c>
       <c r="Y10" t="n">
-        <v>368.4973157021125</v>
+        <v>646.930316449007</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>251.3462593216046</v>
+        <v>915.4240165935545</v>
       </c>
       <c r="C11" t="n">
-        <v>251.3462593216046</v>
+        <v>915.4240165935545</v>
       </c>
       <c r="D11" t="n">
-        <v>251.3462593216046</v>
+        <v>486.8423423308228</v>
       </c>
       <c r="E11" t="n">
-        <v>251.3462593216046</v>
+        <v>486.8423423308228</v>
       </c>
       <c r="F11" t="n">
-        <v>251.3462593216046</v>
+        <v>58.97491274003056</v>
       </c>
       <c r="G11" t="n">
-        <v>251.3462593216046</v>
+        <v>58.97491274003056</v>
       </c>
       <c r="H11" t="n">
         <v>34.36045797446834</v>
@@ -5042,25 +5044,25 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K11" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L11" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M11" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N11" t="n">
-        <v>453.9965675465116</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="O11" t="n">
-        <v>687.9235674375537</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="P11" t="n">
-        <v>1107.976466382457</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="Q11" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R11" t="n">
         <v>1697.183430080417</v>
@@ -5072,19 +5074,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U11" t="n">
-        <v>1437.961127397434</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V11" t="n">
-        <v>1075.344177331261</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W11" t="n">
-        <v>670.4887227422939</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="X11" t="n">
-        <v>251.3462593216046</v>
+        <v>915.4240165935545</v>
       </c>
       <c r="Y11" t="n">
-        <v>251.3462593216046</v>
+        <v>915.4240165935545</v>
       </c>
     </row>
     <row r="12">
@@ -5124,19 +5126,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L12" t="n">
-        <v>1224.671464618085</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M12" t="n">
-        <v>1224.671464618085</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N12" t="n">
-        <v>1224.671464618085</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O12" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P12" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q12" t="n">
         <v>1580.010651986078</v>
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>206.5053801183834</v>
+        <v>227.6920270441282</v>
       </c>
       <c r="C13" t="n">
-        <v>33.94366860160834</v>
+        <v>55.1303155273531</v>
       </c>
       <c r="D13" t="n">
-        <v>33.94366860160834</v>
+        <v>55.1303155273531</v>
       </c>
       <c r="E13" t="n">
-        <v>33.94366860160834</v>
+        <v>55.1303155273531</v>
       </c>
       <c r="F13" t="n">
         <v>33.94366860160834</v>
@@ -5203,13 +5205,13 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L13" t="n">
-        <v>452.1535503695694</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M13" t="n">
-        <v>872.2064493144727</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N13" t="n">
-        <v>1292.259348259376</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O13" t="n">
         <v>1697.183430080417</v>
@@ -5224,25 +5226,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S13" t="n">
-        <v>1667.474275771998</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T13" t="n">
-        <v>1421.594829350453</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U13" t="n">
-        <v>1143.161828603558</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="V13" t="n">
-        <v>1143.161828603558</v>
+        <v>1164.348475529303</v>
       </c>
       <c r="W13" t="n">
-        <v>871.1354241898498</v>
+        <v>892.3220711155946</v>
       </c>
       <c r="X13" t="n">
-        <v>625.7436695232623</v>
+        <v>646.930316449007</v>
       </c>
       <c r="Y13" t="n">
-        <v>398.3239988373705</v>
+        <v>419.5106457631153</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>863.9231742410761</v>
+        <v>1292.207393204728</v>
       </c>
       <c r="C14" t="n">
-        <v>435.3414999783445</v>
+        <v>1292.207393204728</v>
       </c>
       <c r="D14" t="n">
-        <v>435.3414999783445</v>
+        <v>1292.207393204728</v>
       </c>
       <c r="E14" t="n">
-        <v>435.3414999783445</v>
+        <v>863.6257189419966</v>
       </c>
       <c r="F14" t="n">
-        <v>435.3414999783445</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="G14" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H14" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I14" t="n">
         <v>33.94366860160834</v>
@@ -5279,22 +5281,22 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K14" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L14" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M14" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N14" t="n">
-        <v>687.9235674375537</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="O14" t="n">
-        <v>687.9235674375537</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="P14" t="n">
-        <v>1107.976466382457</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q14" t="n">
         <v>1528.02936532736</v>
@@ -5318,10 +5320,10 @@
         <v>1697.183430080417</v>
       </c>
       <c r="X14" t="n">
-        <v>1697.183430080417</v>
+        <v>1292.207393204728</v>
       </c>
       <c r="Y14" t="n">
-        <v>1290.222744725984</v>
+        <v>1292.207393204728</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5357,25 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J15" t="n">
-        <v>384.5656667282782</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="K15" t="n">
-        <v>804.6185656731816</v>
+        <v>480.0602407069692</v>
       </c>
       <c r="L15" t="n">
-        <v>1159.957753041174</v>
+        <v>480.0602407069692</v>
       </c>
       <c r="M15" t="n">
-        <v>1159.957753041174</v>
+        <v>480.0602407069692</v>
       </c>
       <c r="N15" t="n">
-        <v>1159.957753041174</v>
+        <v>900.1131396518725</v>
       </c>
       <c r="O15" t="n">
-        <v>1159.957753041174</v>
+        <v>1320.166038596776</v>
       </c>
       <c r="P15" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="Q15" t="n">
         <v>1580.010651986078</v>
@@ -5410,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>552.97043790589</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C16" t="n">
-        <v>380.4087263891149</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D16" t="n">
-        <v>380.4087263891149</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E16" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F16" t="n">
         <v>33.94366860160834</v>
@@ -5440,10 +5442,10 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L16" t="n">
-        <v>437.4083829648294</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M16" t="n">
-        <v>857.4612819097326</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N16" t="n">
         <v>1277.514180854636</v>
@@ -5464,22 +5466,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T16" t="n">
-        <v>1582.20396991505</v>
+        <v>1535.988625963248</v>
       </c>
       <c r="U16" t="n">
-        <v>1303.770969168155</v>
+        <v>1257.555625216353</v>
       </c>
       <c r="V16" t="n">
-        <v>1016.815461038585</v>
+        <v>970.6001170867833</v>
       </c>
       <c r="W16" t="n">
-        <v>744.789056624877</v>
+        <v>698.5737126730747</v>
       </c>
       <c r="X16" t="n">
-        <v>744.789056624877</v>
+        <v>453.1819580064872</v>
       </c>
       <c r="Y16" t="n">
-        <v>744.789056624877</v>
+        <v>225.7622873205955</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>33.94366860160834</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="C17" t="n">
-        <v>33.94366860160834</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="D17" t="n">
-        <v>33.94366860160834</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E17" t="n">
-        <v>33.94366860160834</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F17" t="n">
-        <v>33.94366860160834</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G17" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H17" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I17" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J17" t="n">
-        <v>453.9965675465116</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="K17" t="n">
-        <v>874.0494664914149</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="L17" t="n">
-        <v>1107.976466382457</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="M17" t="n">
-        <v>1107.976466382457</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="N17" t="n">
-        <v>1107.976466382457</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="O17" t="n">
-        <v>1107.976466382457</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P17" t="n">
-        <v>1528.02936532736</v>
+        <v>2123.562040472834</v>
       </c>
       <c r="Q17" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R17" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S17" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T17" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U17" t="n">
-        <v>1628.844660377785</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V17" t="n">
-        <v>1266.227710311611</v>
+        <v>2548.725264047865</v>
       </c>
       <c r="W17" t="n">
-        <v>861.3722557226442</v>
+        <v>2143.869809458898</v>
       </c>
       <c r="X17" t="n">
-        <v>442.2297923019549</v>
+        <v>1724.727346038208</v>
       </c>
       <c r="Y17" t="n">
-        <v>33.94366860160834</v>
+        <v>1316.441222337862</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C18" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D18" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E18" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F18" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G18" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H18" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I18" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J18" t="n">
-        <v>384.5656667282782</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="K18" t="n">
-        <v>804.6185656731816</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="L18" t="n">
-        <v>1159.957753041174</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="M18" t="n">
-        <v>1159.957753041174</v>
+        <v>740.3049442308646</v>
       </c>
       <c r="N18" t="n">
-        <v>1159.957753041174</v>
+        <v>1401.144998772643</v>
       </c>
       <c r="O18" t="n">
-        <v>1159.957753041174</v>
+        <v>1401.144998772643</v>
       </c>
       <c r="P18" t="n">
-        <v>1159.957753041174</v>
+        <v>1401.144998772643</v>
       </c>
       <c r="Q18" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R18" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S18" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T18" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U18" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V18" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W18" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X18" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y18" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>33.94366860160834</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C19" t="n">
-        <v>33.94366860160834</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D19" t="n">
-        <v>33.94366860160834</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E19" t="n">
-        <v>33.94366860160834</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F19" t="n">
-        <v>33.94366860160834</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G19" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H19" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I19" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J19" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K19" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L19" t="n">
-        <v>813.4916901053949</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M19" t="n">
-        <v>813.4916901053949</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N19" t="n">
-        <v>813.4916901053949</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O19" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P19" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q19" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R19" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S19" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T19" t="n">
-        <v>1451.303983658873</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U19" t="n">
-        <v>1172.870982911978</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V19" t="n">
-        <v>885.9154747824084</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W19" t="n">
-        <v>613.8890703687</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X19" t="n">
-        <v>368.4973157021125</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y19" t="n">
-        <v>141.0776450162207</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="20">
@@ -5726,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1217.066548608396</v>
+        <v>1416.332668825485</v>
       </c>
       <c r="C20" t="n">
-        <v>1206.30858550176</v>
+        <v>978.1901960089081</v>
       </c>
       <c r="D20" t="n">
-        <v>770.3988006762045</v>
+        <v>542.2804111833525</v>
       </c>
       <c r="E20" t="n">
-        <v>770.3988006762045</v>
+        <v>108.5056663416477</v>
       </c>
       <c r="F20" t="n">
-        <v>342.5313710854123</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="G20" t="n">
-        <v>342.5313710854123</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H20" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I20" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J20" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K20" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L20" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M20" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N20" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O20" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P20" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q20" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R20" t="n">
         <v>2670.060826431428</v>
@@ -5783,19 +5785,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U20" t="n">
-        <v>2410.838523748444</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V20" t="n">
-        <v>2048.221573682271</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W20" t="n">
-        <v>1643.366119093304</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X20" t="n">
-        <v>1643.366119093304</v>
+        <v>2250.918363010739</v>
       </c>
       <c r="Y20" t="n">
-        <v>1643.366119093304</v>
+        <v>1842.632239310392</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5825,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H21" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I21" t="n">
         <v>79.46488968908616</v>
       </c>
       <c r="J21" t="n">
-        <v>404.0232146552985</v>
+        <v>277.7880908295409</v>
       </c>
       <c r="K21" t="n">
-        <v>1058.729261281022</v>
+        <v>277.7880908295409</v>
       </c>
       <c r="L21" t="n">
-        <v>1058.729261281022</v>
+        <v>277.7880908295409</v>
       </c>
       <c r="M21" t="n">
-        <v>1058.729261281022</v>
+        <v>938.6281453713193</v>
       </c>
       <c r="N21" t="n">
-        <v>1058.729261281022</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="O21" t="n">
-        <v>1058.729261281022</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="P21" t="n">
-        <v>1058.729261281022</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q21" t="n">
         <v>1599.468199913098</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>903.8972536055599</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C22" t="n">
-        <v>731.3355420887848</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D22" t="n">
-        <v>565.4575492903075</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E22" t="n">
-        <v>395.6995455410447</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F22" t="n">
-        <v>218.9924915028009</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G22" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H22" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I22" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J22" t="n">
         <v>139.9809016933184</v>
@@ -5932,28 +5934,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R22" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S22" t="n">
-        <v>2651.821657388744</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T22" t="n">
-        <v>2405.942210967199</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U22" t="n">
-        <v>2127.509210220304</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V22" t="n">
-        <v>1840.553702090735</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W22" t="n">
-        <v>1568.527297677026</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X22" t="n">
-        <v>1323.135543010439</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y22" t="n">
-        <v>1095.715872324547</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2346.043694250762</v>
+        <v>1483.445958355599</v>
       </c>
       <c r="C23" t="n">
-        <v>1907.901221434185</v>
+        <v>1483.445958355599</v>
       </c>
       <c r="D23" t="n">
-        <v>1471.99143660863</v>
+        <v>1047.536173530043</v>
       </c>
       <c r="E23" t="n">
-        <v>1038.216691766925</v>
+        <v>613.7614286883381</v>
       </c>
       <c r="F23" t="n">
-        <v>610.3492621761325</v>
+        <v>185.8939990975459</v>
       </c>
       <c r="G23" t="n">
-        <v>208.9514307993963</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H23" t="n">
-        <v>87.3448851302369</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I23" t="n">
-        <v>87.3448851302369</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J23" t="n">
-        <v>522.5995725831548</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K23" t="n">
-        <v>768.0418981436329</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L23" t="n">
-        <v>1843.101864396492</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M23" t="n">
-        <v>1843.101864396492</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N23" t="n">
-        <v>1843.101864396492</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O23" t="n">
-        <v>2823.281530966799</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="P23" t="n">
-        <v>3651.591405800194</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="Q23" t="n">
-        <v>4198.090191758789</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R23" t="n">
-        <v>4367.244256511845</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S23" t="n">
-        <v>4367.244256511845</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T23" t="n">
-        <v>4367.244256511845</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U23" t="n">
-        <v>4367.244256511845</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V23" t="n">
-        <v>4004.627306445672</v>
+        <v>2307.443876365255</v>
       </c>
       <c r="W23" t="n">
-        <v>3599.771851856705</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X23" t="n">
-        <v>3180.629388436016</v>
+        <v>1483.445958355599</v>
       </c>
       <c r="Y23" t="n">
-        <v>2772.343264735669</v>
+        <v>1483.445958355599</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>593.5166301215297</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C24" t="n">
-        <v>487.060168958172</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D24" t="n">
-        <v>391.9698801047252</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E24" t="n">
-        <v>297.8494654316789</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F24" t="n">
-        <v>214.4656270478405</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G24" t="n">
-        <v>129.0805373140244</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H24" t="n">
-        <v>87.3448851302369</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I24" t="n">
-        <v>113.4085582906945</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J24" t="n">
-        <v>437.9668832569068</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K24" t="n">
-        <v>1092.672929882631</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L24" t="n">
-        <v>1092.672929882631</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="M24" t="n">
-        <v>1092.672929882631</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="N24" t="n">
-        <v>1092.672929882631</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="O24" t="n">
-        <v>1092.672929882631</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="P24" t="n">
-        <v>1092.672929882631</v>
+        <v>1175.902039375362</v>
       </c>
       <c r="Q24" t="n">
-        <v>1633.411868514706</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R24" t="n">
-        <v>1750.584646609046</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S24" t="n">
-        <v>1687.129209057429</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T24" t="n">
-        <v>1556.950565388031</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U24" t="n">
-        <v>1380.614018387999</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V24" t="n">
-        <v>1181.496500449998</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W24" t="n">
-        <v>996.1737461831922</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X24" t="n">
-        <v>841.3063104220721</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y24" t="n">
-        <v>714.8205312012929</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>937.8409222071682</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C25" t="n">
-        <v>765.2792106903931</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D25" t="n">
-        <v>599.4012178919158</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E25" t="n">
-        <v>429.6432141426531</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F25" t="n">
-        <v>252.9361601044092</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G25" t="n">
-        <v>87.3448851302369</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H25" t="n">
-        <v>87.3448851302369</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I25" t="n">
-        <v>87.3448851302369</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J25" t="n">
-        <v>173.9245702949268</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K25" t="n">
-        <v>448.6830248660624</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L25" t="n">
-        <v>866.8929066340235</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M25" t="n">
-        <v>1326.376773814936</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N25" t="n">
-        <v>1768.635576972581</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O25" t="n">
-        <v>2188.304826198362</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P25" t="n">
-        <v>2535.811720168704</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q25" t="n">
-        <v>2704.004495033037</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R25" t="n">
-        <v>2704.004495033037</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S25" t="n">
-        <v>2685.765325990352</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T25" t="n">
-        <v>2439.885879568807</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U25" t="n">
-        <v>2161.452878821913</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V25" t="n">
-        <v>1874.497370692343</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W25" t="n">
-        <v>1602.470966278635</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X25" t="n">
-        <v>1357.079211612047</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y25" t="n">
-        <v>1129.659540926155</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2449.993599304466</v>
+        <v>856.821934310757</v>
       </c>
       <c r="C26" t="n">
-        <v>2011.85112648789</v>
+        <v>856.821934310757</v>
       </c>
       <c r="D26" t="n">
-        <v>1575.941341662334</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="E26" t="n">
-        <v>1142.166596820629</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="F26" t="n">
-        <v>714.2991672298372</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G26" t="n">
-        <v>312.901335853101</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H26" t="n">
-        <v>53.81800590148855</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I26" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J26" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K26" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L26" t="n">
-        <v>1375.081325612185</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M26" t="n">
-        <v>1375.081325612185</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N26" t="n">
-        <v>1375.081325612185</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O26" t="n">
-        <v>2009.22077188965</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P26" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q26" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R26" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S26" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T26" t="n">
-        <v>2449.993599304466</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U26" t="n">
-        <v>2449.993599304466</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V26" t="n">
-        <v>2449.993599304466</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="W26" t="n">
-        <v>2449.993599304466</v>
+        <v>1702.263968216354</v>
       </c>
       <c r="X26" t="n">
-        <v>2449.993599304466</v>
+        <v>1283.121504795665</v>
       </c>
       <c r="Y26" t="n">
-        <v>2449.993599304466</v>
+        <v>1283.121504795665</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C27" t="n">
-        <v>1406.536348780554</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D27" t="n">
-        <v>1311.446059927107</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E27" t="n">
-        <v>1217.325645254061</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F27" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G27" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H27" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I27" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J27" t="n">
-        <v>1357.443063079289</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="K27" t="n">
-        <v>2012.149109705013</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="L27" t="n">
-        <v>2012.149109705013</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="M27" t="n">
-        <v>2012.149109705013</v>
+        <v>740.3049442308646</v>
       </c>
       <c r="N27" t="n">
-        <v>2012.149109705013</v>
+        <v>1055.800923465659</v>
       </c>
       <c r="O27" t="n">
-        <v>2012.149109705013</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="P27" t="n">
-        <v>2012.149109705013</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="Q27" t="n">
-        <v>2552.888048337089</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R27" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S27" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T27" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U27" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V27" t="n">
-        <v>2100.97268027238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W27" t="n">
-        <v>1915.649926005574</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X27" t="n">
-        <v>1760.782490244454</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y27" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="28">
@@ -6358,43 +6360,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1132.45937714051</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C28" t="n">
-        <v>959.8976656237347</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D28" t="n">
-        <v>794.0196728252574</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E28" t="n">
-        <v>624.2616690759947</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F28" t="n">
-        <v>447.5546150377509</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G28" t="n">
-        <v>281.9633400635786</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="H28" t="n">
-        <v>142.0611657539531</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="I28" t="n">
-        <v>53.40121652862846</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="J28" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K28" t="n">
-        <v>414.7393562644539</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L28" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M28" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N28" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O28" t="n">
         <v>2154.361157596754</v>
@@ -6409,25 +6411,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S28" t="n">
-        <v>2510.819457729424</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.94001130788</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U28" t="n">
-        <v>1986.507010560985</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V28" t="n">
-        <v>1986.507010560985</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W28" t="n">
-        <v>1797.089421211976</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X28" t="n">
-        <v>1551.697666545389</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y28" t="n">
-        <v>1324.277995859497</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1355.320903761553</v>
+        <v>1617.981460104281</v>
       </c>
       <c r="C29" t="n">
-        <v>917.1784309449763</v>
+        <v>1179.838987287704</v>
       </c>
       <c r="D29" t="n">
-        <v>481.2686461194208</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E29" t="n">
-        <v>481.2686461194208</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F29" t="n">
-        <v>53.40121652862856</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G29" t="n">
-        <v>53.40121652862856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H29" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I29" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J29" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K29" t="n">
-        <v>632.7278666362198</v>
+        <v>714.241271070407</v>
       </c>
       <c r="L29" t="n">
-        <v>632.7278666362198</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="M29" t="n">
-        <v>632.7278666362198</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="N29" t="n">
-        <v>1293.567921177998</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="O29" t="n">
-        <v>1293.567921177998</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P29" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472834</v>
       </c>
       <c r="Q29" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R29" t="n">
         <v>2670.060826431428</v>
@@ -6491,22 +6493,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T29" t="n">
-        <v>2366.341725488303</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U29" t="n">
-        <v>2107.11942280532</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V29" t="n">
-        <v>1781.620474246461</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W29" t="n">
-        <v>1781.620474246461</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="X29" t="n">
-        <v>1781.620474246461</v>
+        <v>1617.981460104281</v>
       </c>
       <c r="Y29" t="n">
-        <v>1781.620474246461</v>
+        <v>1617.981460104281</v>
       </c>
     </row>
     <row r="30">
@@ -6534,7 +6536,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H30" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I30" t="n">
         <v>79.46488968908616</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>903.8972536055599</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C31" t="n">
-        <v>731.3355420887848</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D31" t="n">
-        <v>565.4575492903075</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E31" t="n">
-        <v>395.6995455410447</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F31" t="n">
-        <v>218.9924915028009</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G31" t="n">
-        <v>53.40121652862856</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H31" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="I31" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="J31" t="n">
         <v>139.9809016933184</v>
@@ -6646,25 +6648,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S31" t="n">
-        <v>2651.821657388744</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T31" t="n">
-        <v>2405.942210967199</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U31" t="n">
-        <v>2127.509210220304</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V31" t="n">
-        <v>1840.553702090735</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W31" t="n">
-        <v>1568.527297677026</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X31" t="n">
-        <v>1323.135543010439</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y31" t="n">
-        <v>1095.715872324547</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1423.298891966343</v>
+        <v>1196.265441698523</v>
       </c>
       <c r="C32" t="n">
-        <v>985.1564191497662</v>
+        <v>758.1229688819467</v>
       </c>
       <c r="D32" t="n">
-        <v>549.2466343242106</v>
+        <v>758.1229688819467</v>
       </c>
       <c r="E32" t="n">
-        <v>549.2466343242106</v>
+        <v>758.1229688819467</v>
       </c>
       <c r="F32" t="n">
-        <v>549.2466343242106</v>
+        <v>330.2555392911544</v>
       </c>
       <c r="G32" t="n">
-        <v>342.5313710854123</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H32" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I32" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J32" t="n">
         <v>488.6559039815464</v>
@@ -6704,22 +6706,22 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L32" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M32" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N32" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O32" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P32" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q32" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R32" t="n">
         <v>2670.060826431428</v>
@@ -6728,22 +6730,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T32" t="n">
-        <v>2449.993599304466</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="U32" t="n">
-        <v>2190.771296621483</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="V32" t="n">
-        <v>1828.15434655531</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="W32" t="n">
-        <v>1423.298891966343</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="X32" t="n">
-        <v>1423.298891966343</v>
+        <v>2030.851135883778</v>
       </c>
       <c r="Y32" t="n">
-        <v>1423.298891966343</v>
+        <v>1622.565012183431</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C33" t="n">
-        <v>1406.536348780554</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D33" t="n">
-        <v>1311.446059927107</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E33" t="n">
-        <v>1217.325645254061</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F33" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G33" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H33" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I33" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J33" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K33" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L33" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M33" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N33" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O33" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P33" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q33" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R33" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S33" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T33" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U33" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V33" t="n">
-        <v>2100.97268027238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W33" t="n">
-        <v>1915.649926005574</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X33" t="n">
-        <v>1760.782490244454</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y33" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="34">
@@ -6847,13 +6849,13 @@
         <v>218.9924915028009</v>
       </c>
       <c r="G34" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="H34" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="I34" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="J34" t="n">
         <v>139.9809016933184</v>
@@ -6862,13 +6864,13 @@
         <v>414.739356264454</v>
       </c>
       <c r="L34" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M34" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N34" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O34" t="n">
         <v>2154.361157596754</v>
@@ -6880,7 +6882,7 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R34" t="n">
-        <v>2651.821657388744</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S34" t="n">
         <v>2651.821657388744</v>
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>797.924085187707</v>
+        <v>1182.488464651585</v>
       </c>
       <c r="C35" t="n">
-        <v>797.924085187707</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="D35" t="n">
-        <v>797.924085187707</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="E35" t="n">
-        <v>797.924085187707</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="F35" t="n">
-        <v>743.9292024621484</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G35" t="n">
-        <v>342.5313710854123</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J35" t="n">
         <v>488.6559039815464</v>
@@ -6953,10 +6955,10 @@
         <v>1293.567921177998</v>
       </c>
       <c r="P35" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q35" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R35" t="n">
         <v>2670.060826431428</v>
@@ -6965,22 +6967,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T35" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="U35" t="n">
-        <v>2410.838523748444</v>
+        <v>2190.771296621484</v>
       </c>
       <c r="V35" t="n">
-        <v>2048.221573682271</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W35" t="n">
-        <v>1643.366119093304</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="X35" t="n">
-        <v>1224.223655672615</v>
+        <v>1590.774588351931</v>
       </c>
       <c r="Y35" t="n">
-        <v>1224.223655672615</v>
+        <v>1182.488464651585</v>
       </c>
     </row>
     <row r="36">
@@ -7008,28 +7010,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H36" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I36" t="n">
-        <v>73.33088177303154</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J36" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K36" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L36" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M36" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N36" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O36" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P36" t="n">
         <v>1058.729261281022</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>922.1364226482442</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C37" t="n">
-        <v>749.5747111314691</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D37" t="n">
-        <v>583.6967183329918</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E37" t="n">
-        <v>413.9387145837291</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F37" t="n">
-        <v>237.2316605454853</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G37" t="n">
-        <v>71.64038557131298</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="H37" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="I37" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="J37" t="n">
         <v>139.9809016933184</v>
@@ -7120,25 +7122,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S37" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T37" t="n">
-        <v>2424.181380009883</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U37" t="n">
-        <v>2145.748379262989</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V37" t="n">
-        <v>1858.792871133419</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W37" t="n">
-        <v>1586.766466719711</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X37" t="n">
-        <v>1341.374712053123</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y37" t="n">
-        <v>1113.955041367231</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1075.159834655251</v>
+        <v>927.8702635436207</v>
       </c>
       <c r="C38" t="n">
-        <v>1075.159834655251</v>
+        <v>489.7277907270441</v>
       </c>
       <c r="D38" t="n">
-        <v>1075.159834655251</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="E38" t="n">
-        <v>641.3850898135465</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="F38" t="n">
-        <v>213.5176602227543</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="G38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J38" t="n">
         <v>488.6559039815464</v>
@@ -7190,10 +7192,10 @@
         <v>1293.567921177998</v>
       </c>
       <c r="P38" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q38" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R38" t="n">
         <v>2670.060826431428</v>
@@ -7208,16 +7210,16 @@
         <v>2670.060826431428</v>
       </c>
       <c r="V38" t="n">
-        <v>2307.443876365254</v>
+        <v>2586.453875738531</v>
       </c>
       <c r="W38" t="n">
-        <v>1902.588421776288</v>
+        <v>2181.598421149564</v>
       </c>
       <c r="X38" t="n">
-        <v>1483.445958355598</v>
+        <v>1762.455957728875</v>
       </c>
       <c r="Y38" t="n">
-        <v>1075.159834655251</v>
+        <v>1354.169834028528</v>
       </c>
     </row>
     <row r="39">
@@ -7245,7 +7247,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H39" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I39" t="n">
         <v>79.46488968908616</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>903.8972536055599</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C40" t="n">
-        <v>731.3355420887848</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D40" t="n">
-        <v>565.4575492903075</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E40" t="n">
-        <v>395.6995455410447</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F40" t="n">
-        <v>218.9924915028009</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G40" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H40" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I40" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J40" t="n">
         <v>139.9809016933184</v>
@@ -7336,7 +7338,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L40" t="n">
-        <v>832.9492380324151</v>
+        <v>832.9492380324152</v>
       </c>
       <c r="M40" t="n">
         <v>1292.433105213328</v>
@@ -7357,25 +7359,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S40" t="n">
-        <v>2651.821657388744</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T40" t="n">
-        <v>2405.942210967199</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U40" t="n">
-        <v>2127.509210220304</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V40" t="n">
-        <v>1840.553702090735</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W40" t="n">
-        <v>1568.527297677026</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X40" t="n">
-        <v>1323.135543010439</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y40" t="n">
-        <v>1095.715872324547</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>454.7990479053647</v>
+        <v>1182.071675278725</v>
       </c>
       <c r="C41" t="n">
-        <v>454.7990479053647</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="D41" t="n">
-        <v>454.7990479053647</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E41" t="n">
-        <v>454.7990479053647</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F41" t="n">
-        <v>454.7990479053647</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G41" t="n">
-        <v>53.40121652862856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J41" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K41" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L41" t="n">
-        <v>53.40121652862856</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M41" t="n">
-        <v>53.40121652862856</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N41" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O41" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P41" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q41" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R41" t="n">
         <v>2670.060826431428</v>
@@ -7439,22 +7441,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T41" t="n">
-        <v>2366.341725488303</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U41" t="n">
-        <v>2107.11942280532</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V41" t="n">
-        <v>1744.502472739146</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W41" t="n">
-        <v>1339.64701815018</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="X41" t="n">
-        <v>920.5045547294905</v>
+        <v>1182.071675278725</v>
       </c>
       <c r="Y41" t="n">
-        <v>512.2184310291439</v>
+        <v>1182.071675278725</v>
       </c>
     </row>
     <row r="42">
@@ -7482,7 +7484,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H42" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I42" t="n">
         <v>79.46488968908616</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>922.1364226482442</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C43" t="n">
-        <v>749.5747111314691</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="D43" t="n">
-        <v>583.6967183329918</v>
+        <v>597.0170611477635</v>
       </c>
       <c r="E43" t="n">
-        <v>413.9387145837291</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F43" t="n">
-        <v>237.2316605454853</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G43" t="n">
-        <v>71.64038557131298</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H43" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="I43" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="J43" t="n">
         <v>139.9809016933184</v>
@@ -7594,25 +7596,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S43" t="n">
-        <v>2670.060826431428</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T43" t="n">
-        <v>2424.181380009883</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U43" t="n">
-        <v>2145.748379262989</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V43" t="n">
-        <v>1858.792871133419</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W43" t="n">
-        <v>1586.766466719711</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X43" t="n">
-        <v>1341.374712053123</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y43" t="n">
-        <v>1113.955041367231</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>724.4716545351282</v>
+        <v>1190.583197132817</v>
       </c>
       <c r="C44" t="n">
-        <v>724.4716545351282</v>
+        <v>752.4407243162404</v>
       </c>
       <c r="D44" t="n">
-        <v>724.4716545351282</v>
+        <v>752.4407243162404</v>
       </c>
       <c r="E44" t="n">
-        <v>724.4716545351282</v>
+        <v>752.4407243162404</v>
       </c>
       <c r="F44" t="n">
-        <v>724.4716545351282</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G44" t="n">
-        <v>323.0738231583921</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J44" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K44" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L44" t="n">
-        <v>453.9965675465116</v>
+        <v>714.241271070407</v>
       </c>
       <c r="M44" t="n">
-        <v>453.9965675465116</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N44" t="n">
-        <v>453.9965675465116</v>
+        <v>714.241271070407</v>
       </c>
       <c r="O44" t="n">
-        <v>687.9235674375537</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="P44" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q44" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R44" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S44" t="n">
-        <v>1613.531556264254</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T44" t="n">
-        <v>1613.531556264254</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U44" t="n">
-        <v>1613.531556264254</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="V44" t="n">
-        <v>1250.914606198081</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W44" t="n">
-        <v>1250.914606198081</v>
+        <v>1598.869320833164</v>
       </c>
       <c r="X44" t="n">
-        <v>831.7721427773914</v>
+        <v>1598.869320833164</v>
       </c>
       <c r="Y44" t="n">
-        <v>724.4716545351282</v>
+        <v>1190.583197132817</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C45" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D45" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E45" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F45" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G45" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H45" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I45" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J45" t="n">
-        <v>60.00734176206595</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K45" t="n">
-        <v>480.0602407069692</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L45" t="n">
-        <v>900.1131396518725</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M45" t="n">
-        <v>900.1131396518725</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N45" t="n">
-        <v>900.1131396518725</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O45" t="n">
-        <v>1320.166038596776</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P45" t="n">
-        <v>1580.010651986078</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q45" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R45" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S45" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T45" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U45" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V45" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W45" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X45" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y45" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>637.0779828018885</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C46" t="n">
-        <v>464.5162712851135</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="D46" t="n">
-        <v>298.6382784866362</v>
+        <v>575.5992398531354</v>
       </c>
       <c r="E46" t="n">
-        <v>128.8802747373734</v>
+        <v>405.8412361038726</v>
       </c>
       <c r="F46" t="n">
-        <v>33.94366860160834</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G46" t="n">
-        <v>33.94366860160834</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H46" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="I46" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="J46" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K46" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L46" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M46" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N46" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O46" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P46" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q46" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R46" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S46" t="n">
-        <v>1675.765608785789</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T46" t="n">
-        <v>1429.886162364244</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U46" t="n">
-        <v>1151.45316161735</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V46" t="n">
-        <v>864.4976534877803</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W46" t="n">
-        <v>864.4976534877803</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X46" t="n">
-        <v>864.4976534877803</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y46" t="n">
-        <v>637.0779828018885</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>424.2958575201043</v>
@@ -7991,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -8052,19 +8054,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>385.2554146752025</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,19 +8136,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>44.41372909529082</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8295,22 +8297,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P6" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L6" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -8456,7 +8458,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>407.152590549595</v>
       </c>
       <c r="M8" t="n">
         <v>424.2958575201043</v>
@@ -8465,7 +8467,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="O8" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -8532,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8617,13 +8619,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>409.401749030468</v>
       </c>
       <c r="N10" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O10" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -8690,7 +8692,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8699,19 +8701,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O11" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,7 +8774,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8851,16 +8853,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M13" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N13" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O13" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8927,25 +8929,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9003,28 +9005,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L15" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>262.4693064538403</v>
       </c>
       <c r="Q15" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9088,13 +9090,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N16" t="n">
-        <v>424.2958575201044</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O16" t="n">
         <v>423.9083325512944</v>
@@ -9161,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>424.2958575201043</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K17" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L17" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9176,16 +9178,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P17" t="n">
-        <v>424.2958575201044</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,19 +9242,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>424.2958575201044</v>
+        <v>200.3264657984391</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9328,13 +9330,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
         <v>351.0170646165068</v>
@@ -9401,10 +9403,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>145.5272350047205</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9413,10 +9415,10 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9477,19 +9479,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>200.3264657984391</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9498,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9638,25 +9640,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>247.92154097018</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9717,10 +9719,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>112.1603739174595</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L26" t="n">
-        <v>667.5152066078568</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,16 +9889,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>640.5448952297622</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,31 +9953,31 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>318.6828073078733</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P29" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10352,7 +10354,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,10 +10363,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10510,7 +10512,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645587</v>
@@ -10589,7 +10591,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L35" t="n">
-        <v>145.5272350047205</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10601,7 +10603,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10659,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>20.13097499434645</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -10680,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10835,10 +10837,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>145.5272350047205</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P38" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
@@ -11057,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11294,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,13 +11311,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>236.2898988798406</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P44" t="n">
-        <v>424.2958575201044</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q44" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11373,13 +11375,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>424.2958575201043</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,13 +11390,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>262.4693064538403</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -11452,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22544,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>59.33415455948301</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -22601,16 +22603,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>206.8080099672624</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -22705,7 +22707,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22714,10 +22716,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>77.54146348266089</v>
       </c>
       <c r="G4" t="n">
-        <v>64.29820093562992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -22759,13 +22761,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -22790,7 +22792,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -22802,7 +22804,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22835,10 +22837,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>2.637990042895353</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>209.4799141864395</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -22939,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>83.83779588133098</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -22951,7 +22953,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>68.87734684739507</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -23030,7 +23032,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23039,7 +23041,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23075,10 +23077,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>182.1552882501725</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>349.5265853680346</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23179,16 +23181,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>26.75274561406829</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>96.88015277411134</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -23233,7 +23235,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23261,19 +23263,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>71.42290967755099</v>
+        <v>261.8705427933093</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,13 +23314,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23425,7 +23427,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>153.965203041374</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
@@ -23464,16 +23466,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>128.236892249648</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23492,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23558,10 +23560,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>14.02476227955026</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.312183962453958</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23653,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
@@ -23704,7 +23706,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>129.5909863936152</v>
+        <v>83.83779588133126</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23738,13 +23740,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -23786,10 +23788,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>188.9746976505468</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>238.8685738057837</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23887,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>83.83779588133098</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23969,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>423.110664612841</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>369.4479714591268</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24023,19 +24025,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24139,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24203,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24218,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>266.2159983197406</v>
       </c>
       <c r="H23" t="n">
-        <v>165.848372798748</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
         <v>0.4126214791313976</v>
@@ -24272,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24376,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24440,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>320.1995039263088</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>29.74635635911955</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24491,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>81.78272691405297</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24689,13 +24691,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0.4126214791313976</v>
@@ -24737,13 +24739,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>36.74682149224094</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>289.6952362779643</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -24853,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142716</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>192.7357424565584</v>
+        <v>123.7106950071995</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24971,19 +24973,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>3.146865729424778</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25151,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -25163,7 +25165,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>370.1338213965813</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25172,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25205,7 +25207,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25214,13 +25216,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>179.9450781651372</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25360,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>238.8685738057843</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25448,7 +25450,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>276.2198993795432</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25561,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -25597,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>365.1913854875173</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -25643,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -25691,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>258.9514493437413</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25786,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>107.2592358276478</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25834,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25865,7 +25867,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -25874,7 +25876,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>415.1623486593332</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25916,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -25925,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>297.9757791035025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,13 +26034,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>80.9527434234539</v>
+        <v>128.4628789093295</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26071,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>348830.8383645082</v>
+        <v>348830.8383645081</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>348830.8383645081</v>
+        <v>348830.8383645082</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>348830.8383645081</v>
+        <v>490720.6138548366</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490720.6138548364</v>
+        <v>490720.6138548366</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>680905.0983330206</v>
+        <v>490720.6138548366</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490720.6138548364</v>
+        <v>490720.6138548366</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490720.6138548364</v>
+        <v>490720.6138548366</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490720.6138548364</v>
+        <v>490720.6138548366</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490720.6138548364</v>
+        <v>490720.6138548366</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490720.6138548364</v>
+        <v>490720.6138548366</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>348830.8383645081</v>
+        <v>490720.6138548366</v>
       </c>
     </row>
   </sheetData>
@@ -26317,7 +26319,7 @@
         <v>84141.63629345148</v>
       </c>
       <c r="D2" t="n">
-        <v>84141.63629345148</v>
+        <v>84141.63629345146</v>
       </c>
       <c r="E2" t="n">
         <v>84141.63629345148</v>
@@ -26326,13 +26328,13 @@
         <v>84141.63629345148</v>
       </c>
       <c r="G2" t="n">
-        <v>84141.63629345148</v>
+        <v>118366.9299602668</v>
       </c>
       <c r="H2" t="n">
         <v>118366.9299602668</v>
       </c>
       <c r="I2" t="n">
-        <v>164241.4111175184</v>
+        <v>118366.9299602668</v>
       </c>
       <c r="J2" t="n">
         <v>118366.9299602668</v>
@@ -26347,13 +26349,13 @@
         <v>118366.9299602668</v>
       </c>
       <c r="N2" t="n">
-        <v>118366.9299602668</v>
+        <v>118366.9299602669</v>
       </c>
       <c r="O2" t="n">
         <v>118366.9299602668</v>
       </c>
       <c r="P2" t="n">
-        <v>84141.63629345148</v>
+        <v>118366.9299602668</v>
       </c>
     </row>
     <row r="3">
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>66662.77529471672</v>
       </c>
       <c r="H3" t="n">
-        <v>65622.76935801745</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>112829.1787276037</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>58530.97957731679</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,13 +26432,13 @@
         <v>12632.2219864234</v>
       </c>
       <c r="G4" t="n">
-        <v>12632.2219864234</v>
+        <v>17770.48083418235</v>
       </c>
       <c r="H4" t="n">
         <v>17770.48083418235</v>
       </c>
       <c r="I4" t="n">
-        <v>24657.63747883511</v>
+        <v>17770.48083418235</v>
       </c>
       <c r="J4" t="n">
         <v>17770.48083418235</v>
@@ -26445,19 +26447,19 @@
         <v>17770.48083418235</v>
       </c>
       <c r="L4" t="n">
-        <v>17770.48083418234</v>
+        <v>17770.48083418235</v>
       </c>
       <c r="M4" t="n">
         <v>17770.48083418235</v>
       </c>
       <c r="N4" t="n">
-        <v>17770.48083418234</v>
+        <v>17770.48083418235</v>
       </c>
       <c r="O4" t="n">
         <v>17770.48083418235</v>
       </c>
       <c r="P4" t="n">
-        <v>12632.2219864234</v>
+        <v>17770.48083418235</v>
       </c>
     </row>
     <row r="5">
@@ -26482,34 +26484,34 @@
         <v>25797.18813722234</v>
       </c>
       <c r="G5" t="n">
-        <v>25797.18813722234</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="H5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="I5" t="n">
-        <v>66382.11269898004</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="J5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="K5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="L5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="M5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="N5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="O5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="P5" t="n">
-        <v>25797.18813722234</v>
+        <v>40584.92456175771</v>
       </c>
     </row>
     <row r="6">
@@ -26525,7 +26527,7 @@
         <v>12084.62616980574</v>
       </c>
       <c r="D6" t="n">
-        <v>12084.62616980574</v>
+        <v>12084.62616980572</v>
       </c>
       <c r="E6" t="n">
         <v>45712.22616980574</v>
@@ -26534,34 +26536,34 @@
         <v>45712.22616980574</v>
       </c>
       <c r="G6" t="n">
-        <v>45712.22616980574</v>
+        <v>-6651.250730389947</v>
       </c>
       <c r="H6" t="n">
-        <v>-5611.244793690676</v>
+        <v>60011.52456432678</v>
       </c>
       <c r="I6" t="n">
-        <v>-39627.51778790039</v>
+        <v>60011.52456432678</v>
       </c>
       <c r="J6" t="n">
-        <v>60011.52456432676</v>
+        <v>-51002.94078066338</v>
       </c>
       <c r="K6" t="n">
-        <v>60011.52456432676</v>
+        <v>60011.52456432677</v>
       </c>
       <c r="L6" t="n">
         <v>60011.52456432678</v>
       </c>
       <c r="M6" t="n">
-        <v>60011.52456432676</v>
+        <v>60011.52456432677</v>
       </c>
       <c r="N6" t="n">
-        <v>60011.52456432678</v>
+        <v>60011.5245643268</v>
       </c>
       <c r="O6" t="n">
-        <v>60011.52456432675</v>
+        <v>1480.544987009984</v>
       </c>
       <c r="P6" t="n">
-        <v>45712.22616980574</v>
+        <v>60011.52456432677</v>
       </c>
     </row>
   </sheetData>
@@ -26802,34 +26804,34 @@
         <v>424.2958575201043</v>
       </c>
       <c r="G4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="H4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="I4" t="n">
-        <v>1091.811064127961</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078571</v>
       </c>
     </row>
   </sheetData>
@@ -27024,16 +27026,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>243.2193490877527</v>
       </c>
       <c r="H4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>243.2193490877527</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>243.2193490877527</v>
       </c>
       <c r="P4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>424.2958575201043</v>
@@ -34711,7 +34713,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -34772,19 +34774,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>385.2554146752025</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34793,10 +34795,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,19 +34856,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>44.41372909529082</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512943</v>
@@ -35015,22 +35017,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P6" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L6" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -35176,7 +35178,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>407.152590549595</v>
       </c>
       <c r="M8" t="n">
         <v>424.2958575201043</v>
@@ -35185,7 +35187,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="O8" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35252,7 +35254,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,7 +35263,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35337,13 +35339,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>409.401749030468</v>
       </c>
       <c r="N10" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O10" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35410,7 +35412,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35419,19 +35421,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O11" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,7 +35494,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35501,13 +35503,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35571,16 +35573,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M13" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N13" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O13" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35647,25 +35649,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697544</v>
@@ -35723,28 +35725,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L15" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>262.4693064538403</v>
       </c>
       <c r="Q15" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35808,13 +35810,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N16" t="n">
-        <v>424.2958575201044</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O16" t="n">
         <v>423.9083325512943</v>
@@ -35881,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>424.2958575201043</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K17" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L17" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -35896,16 +35898,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P17" t="n">
-        <v>424.2958575201044</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35981,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>424.2958575201044</v>
+        <v>200.3264657984391</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36048,16 +36050,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821539</v>
@@ -36121,10 +36123,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>145.5272350047205</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -36133,10 +36135,10 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
@@ -36194,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>200.3264657984391</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36218,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36358,28 +36360,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>247.92154097018</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831377</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36452,13 +36454,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>112.1603739174595</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36522,13 +36524,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36592,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L26" t="n">
-        <v>667.5152066078568</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -36607,16 +36609,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>640.5448952297622</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>26.3269425863208</v>
       </c>
       <c r="J27" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>318.6828073078733</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36759,13 +36761,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P29" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37072,7 +37074,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -37081,10 +37083,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
@@ -37145,7 +37147,7 @@
         <v>26.3269425863208</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>661.3192390158827</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37309,7 +37311,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L35" t="n">
-        <v>145.5272350047205</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -37321,7 +37323,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>20.13097499434645</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37400,7 +37402,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37555,10 +37557,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>145.5272350047205</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P38" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37704,10 +37706,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -37777,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38014,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38029,13 +38031,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>236.2898988798406</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P44" t="n">
-        <v>424.2958575201044</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q44" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697544</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>424.2958575201043</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38108,13 +38110,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>262.4693064538403</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>111478.1940564122</v>
+        <v>106117.89508543</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23347074.56340345</v>
+        <v>22848214.48109674</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8645685.345390849</v>
+        <v>8156752.578722054</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5017327.988107468</v>
+        <v>5264755.456604403</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>374.4268935289279</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>4.609587791059592</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>32.36512697042829</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -828,7 +828,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>97.39852001520045</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -898,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>374.4268935289278</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>47.15016546971378</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>106.0626366504663</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1122,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>152.355512532834</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>240.7036592339657</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>9.464195197477146</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>78.05983072375</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1356,7 +1356,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>231.1455405397892</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>424.2958575201043</v>
+        <v>290.7014997425542</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>24.3683102179066</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>20.97478045648731</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>54.66258501924893</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>185.5573750678079</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>400.9262765069321</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1767,19 +1767,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>159.582856075998</v>
+        <v>240.2737862279046</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>261.475122717648</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>120.122206759728</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -1912,7 +1912,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2016,7 +2016,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7884964950064</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.273786227905</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2092,16 +2092,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>54.14078383575751</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>367.3035961918281</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2253,10 +2253,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>3.139541480022953</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>122.9742767430572</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>115.0078226534528</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>131.1678547432281</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -2386,7 +2386,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2490,7 +2490,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>3.139541480022953</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>111.3511830509911</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>125.2558025085172</v>
       </c>
       <c r="G26" t="n">
         <v>397.3838530629687</v>
@@ -2575,7 +2575,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2809,7 +2809,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>217.8665548556918</v>
@@ -2854,10 +2854,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>125.2558025085181</v>
+        <v>93.5031105546575</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="H31" t="n">
-        <v>18.05677735225758</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>273.6731580557692</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>125.2558025085172</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3274,19 +3274,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>5.982035660293848</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
@@ -3328,10 +3328,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>235.0059606213452</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -3438,7 +3438,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,10 +3559,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>120.1222067597276</v>
       </c>
       <c r="V38" t="n">
-        <v>82.77088118596852</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -3675,10 +3675,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>24.34318456170476</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>8.312815626316432</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>155.9995894427411</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3900,22 +3900,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>60.80118788412234</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>8.426406635551132</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>242.090676404818</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4137,7 +4137,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4146,13 +4146,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>46.47710458853181</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7884964950064</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1697.183430080417</v>
+        <v>38.59981788550692</v>
       </c>
       <c r="C2" t="n">
-        <v>1318.974446717864</v>
+        <v>38.59981788550692</v>
       </c>
       <c r="D2" t="n">
-        <v>890.3927724551322</v>
+        <v>38.59981788550692</v>
       </c>
       <c r="E2" t="n">
-        <v>461.8110981924006</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F2" t="n">
         <v>33.94366860160834</v>
@@ -4330,19 +4330,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
         <v>687.9235674375537</v>
@@ -4369,13 +4369,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1697.183430080417</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="X2" t="n">
-        <v>1697.183430080417</v>
+        <v>873.1855120707613</v>
       </c>
       <c r="Y2" t="n">
-        <v>1697.183430080417</v>
+        <v>464.8993883704147</v>
       </c>
     </row>
     <row r="3">
@@ -4388,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4397,37 +4397,37 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>1198.607791457627</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5237201158209</v>
+        <v>718.8484307043673</v>
       </c>
       <c r="C4" t="n">
-        <v>467.9620085990458</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D4" t="n">
-        <v>302.0840158005685</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E4" t="n">
-        <v>132.3260120513058</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F4" t="n">
         <v>33.94366860160834</v>
@@ -4494,19 +4494,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4515,25 +4515,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U4" t="n">
-        <v>1172.870982911978</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="V4" t="n">
-        <v>885.9154747824084</v>
+        <v>1250.986553248845</v>
       </c>
       <c r="W4" t="n">
-        <v>885.9154747824084</v>
+        <v>978.9601488351361</v>
       </c>
       <c r="X4" t="n">
-        <v>640.5237201158209</v>
+        <v>978.9601488351361</v>
       </c>
       <c r="Y4" t="n">
-        <v>640.5237201158209</v>
+        <v>751.5404781492443</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>462.9421322372</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C5" t="n">
-        <v>462.9421322372</v>
+        <v>1268.601755817686</v>
       </c>
       <c r="D5" t="n">
-        <v>462.9421322372</v>
+        <v>840.020081554954</v>
       </c>
       <c r="E5" t="n">
-        <v>34.36045797446834</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I5" t="n">
         <v>33.94366860160834</v>
@@ -4570,16 +4570,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O5" t="n">
         <v>687.9235674375537</v>
@@ -4600,19 +4600,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U5" t="n">
-        <v>1649.55700031303</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V5" t="n">
-        <v>1286.940050246856</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W5" t="n">
-        <v>882.0845956578893</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X5" t="n">
-        <v>462.9421322372</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y5" t="n">
-        <v>462.9421322372</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="6">
@@ -4649,19 +4649,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K6" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M6" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N6" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P6" t="n">
         <v>1159.957753041174</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>141.0776450162207</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C7" t="n">
-        <v>141.0776450162207</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D7" t="n">
-        <v>141.0776450162207</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E7" t="n">
-        <v>141.0776450162207</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F7" t="n">
         <v>33.94366860160834</v>
@@ -4728,19 +4728,19 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L7" t="n">
-        <v>395.2818083374338</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="M7" t="n">
-        <v>815.3347072823371</v>
+        <v>540.5762527112014</v>
       </c>
       <c r="N7" t="n">
-        <v>1235.38760622724</v>
+        <v>960.6291516561047</v>
       </c>
       <c r="O7" t="n">
-        <v>1235.38760622724</v>
+        <v>1380.298400881886</v>
       </c>
       <c r="P7" t="n">
         <v>1528.990655216085</v>
@@ -4749,28 +4749,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U7" t="n">
-        <v>1172.870982911978</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V7" t="n">
-        <v>885.9154747824084</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W7" t="n">
-        <v>613.8890703687</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X7" t="n">
-        <v>368.4973157021125</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="Y7" t="n">
-        <v>141.0776450162207</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.6257189419966</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="C8" t="n">
-        <v>863.6257189419966</v>
+        <v>705.6603521915781</v>
       </c>
       <c r="D8" t="n">
-        <v>863.6257189419966</v>
+        <v>277.0786779288464</v>
       </c>
       <c r="E8" t="n">
-        <v>863.6257189419966</v>
+        <v>277.0786779288464</v>
       </c>
       <c r="F8" t="n">
-        <v>435.7582893512044</v>
+        <v>277.0786779288464</v>
       </c>
       <c r="G8" t="n">
-        <v>34.36045797446834</v>
+        <v>277.0786779288464</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I8" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
-        <v>33.94366860160834</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L8" t="n">
-        <v>437.0247332457074</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M8" t="n">
-        <v>857.0776321906106</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N8" t="n">
-        <v>1277.130531135514</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O8" t="n">
-        <v>1697.183430080417</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P8" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q8" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R8" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V8" t="n">
-        <v>1687.623636951653</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="W8" t="n">
-        <v>1282.768182362686</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="X8" t="n">
-        <v>863.6257189419966</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="Y8" t="n">
-        <v>863.6257189419966</v>
+        <v>1134.24202645431</v>
       </c>
     </row>
     <row r="9">
@@ -4889,16 +4889,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L9" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M9" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N9" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O9" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P9" t="n">
         <v>1159.957753041174</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>455.1116977300199</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="C10" t="n">
-        <v>282.5499862132448</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="D10" t="n">
-        <v>282.5499862132448</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E10" t="n">
-        <v>112.7919824639821</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F10" t="n">
         <v>33.94366860160834</v>
@@ -4968,19 +4968,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>1293.718715717196</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q10" t="n">
         <v>1697.183430080417</v>
@@ -4995,19 +4995,19 @@
         <v>1451.303983658873</v>
       </c>
       <c r="U10" t="n">
-        <v>1451.303983658873</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V10" t="n">
-        <v>1164.348475529303</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W10" t="n">
-        <v>892.3220711155946</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X10" t="n">
-        <v>646.930316449007</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="Y10" t="n">
-        <v>646.930316449007</v>
+        <v>380.4087263891149</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>915.4240165935545</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="C11" t="n">
-        <v>915.4240165935545</v>
+        <v>1610.079100865694</v>
       </c>
       <c r="D11" t="n">
-        <v>486.8423423308228</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E11" t="n">
-        <v>486.8423423308228</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F11" t="n">
-        <v>58.97491274003056</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G11" t="n">
-        <v>58.97491274003056</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H11" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I11" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J11" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K11" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L11" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M11" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N11" t="n">
-        <v>1294.102365436318</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O11" t="n">
-        <v>1294.102365436318</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P11" t="n">
-        <v>1294.102365436318</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q11" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R11" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S11" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T11" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U11" t="n">
-        <v>1697.183430080417</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V11" t="n">
-        <v>1334.566480014244</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W11" t="n">
-        <v>1334.566480014244</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="X11" t="n">
-        <v>915.4240165935545</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="Y11" t="n">
-        <v>915.4240165935545</v>
+        <v>2048.221573682271</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C12" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D12" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E12" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F12" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G12" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H12" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I12" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J12" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K12" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L12" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M12" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N12" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O12" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P12" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q12" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R12" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S12" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T12" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U12" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V12" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W12" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X12" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y12" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>227.6920270441282</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C13" t="n">
-        <v>55.1303155273531</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D13" t="n">
-        <v>55.1303155273531</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E13" t="n">
-        <v>55.1303155273531</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F13" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G13" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H13" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I13" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J13" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K13" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L13" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M13" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N13" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O13" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P13" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q13" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R13" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S13" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T13" t="n">
-        <v>1451.303983658873</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U13" t="n">
-        <v>1451.303983658873</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V13" t="n">
-        <v>1164.348475529303</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W13" t="n">
-        <v>892.3220711155946</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X13" t="n">
-        <v>646.930316449007</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y13" t="n">
-        <v>419.5106457631153</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1292.207393204728</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="C14" t="n">
-        <v>1292.207393204728</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="D14" t="n">
-        <v>1292.207393204728</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E14" t="n">
-        <v>863.6257189419966</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F14" t="n">
-        <v>435.7582893512044</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G14" t="n">
-        <v>34.36045797446834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H14" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I14" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J14" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K14" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L14" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M14" t="n">
-        <v>1107.976466382457</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N14" t="n">
-        <v>1528.02936532736</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O14" t="n">
-        <v>1528.02936532736</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P14" t="n">
-        <v>1528.02936532736</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q14" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R14" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S14" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T14" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U14" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V14" t="n">
-        <v>1697.183430080417</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W14" t="n">
-        <v>1697.183430080417</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X14" t="n">
-        <v>1292.207393204728</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="Y14" t="n">
-        <v>1292.207393204728</v>
+        <v>931.3608944498332</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C15" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D15" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E15" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F15" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G15" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H15" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I15" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J15" t="n">
-        <v>60.00734176206595</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K15" t="n">
-        <v>480.0602407069692</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L15" t="n">
-        <v>480.0602407069692</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M15" t="n">
-        <v>480.0602407069692</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N15" t="n">
-        <v>900.1131396518725</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O15" t="n">
-        <v>1320.166038596776</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P15" t="n">
-        <v>1580.010651986078</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q15" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R15" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S15" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T15" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U15" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V15" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W15" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X15" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y15" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33.94366860160834</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C16" t="n">
-        <v>33.94366860160834</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D16" t="n">
-        <v>33.94366860160834</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E16" t="n">
-        <v>33.94366860160834</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F16" t="n">
-        <v>33.94366860160834</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G16" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H16" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I16" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J16" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K16" t="n">
-        <v>33.94366860160834</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L16" t="n">
-        <v>452.1535503695694</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M16" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N16" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O16" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P16" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q16" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R16" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S16" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T16" t="n">
-        <v>1535.988625963248</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U16" t="n">
-        <v>1257.555625216353</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V16" t="n">
-        <v>970.6001170867833</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W16" t="n">
-        <v>698.5737126730747</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X16" t="n">
-        <v>453.1819580064872</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.7622873205955</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1316.441222337862</v>
+        <v>753.4272869275659</v>
       </c>
       <c r="C17" t="n">
-        <v>1316.441222337862</v>
+        <v>753.4272869275659</v>
       </c>
       <c r="D17" t="n">
-        <v>1316.441222337862</v>
+        <v>317.5175021020104</v>
       </c>
       <c r="E17" t="n">
-        <v>882.6664774961569</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="F17" t="n">
-        <v>454.7990479053647</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G17" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H17" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I17" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J17" t="n">
-        <v>141.0418768474983</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K17" t="n">
-        <v>801.8819313892767</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L17" t="n">
-        <v>801.8819313892767</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M17" t="n">
-        <v>801.8819313892767</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N17" t="n">
-        <v>801.8819313892767</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O17" t="n">
-        <v>1462.721985931055</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P17" t="n">
-        <v>2123.562040472834</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q17" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R17" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S17" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T17" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U17" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V17" t="n">
-        <v>2548.725264047865</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W17" t="n">
-        <v>2143.869809458898</v>
+        <v>1598.869320833163</v>
       </c>
       <c r="X17" t="n">
-        <v>1724.727346038208</v>
+        <v>1179.726857412474</v>
       </c>
       <c r="Y17" t="n">
-        <v>1316.441222337862</v>
+        <v>1179.726857412474</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H18" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I18" t="n">
         <v>79.46488968908616</v>
       </c>
       <c r="J18" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K18" t="n">
-        <v>79.46488968908616</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L18" t="n">
-        <v>79.46488968908616</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M18" t="n">
-        <v>740.3049442308646</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N18" t="n">
-        <v>1401.144998772643</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O18" t="n">
-        <v>1401.144998772643</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P18" t="n">
-        <v>1401.144998772643</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q18" t="n">
         <v>1599.468199913098</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>903.8972536055599</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C19" t="n">
-        <v>731.3355420887848</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D19" t="n">
-        <v>565.4575492903075</v>
+        <v>562.2788970383638</v>
       </c>
       <c r="E19" t="n">
-        <v>395.6995455410447</v>
+        <v>392.520893289101</v>
       </c>
       <c r="F19" t="n">
-        <v>218.9924915028009</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="G19" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H19" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I19" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J19" t="n">
         <v>139.9809016933184</v>
@@ -5703,22 +5703,22 @@
         <v>2648.6430051368</v>
       </c>
       <c r="T19" t="n">
-        <v>2405.942210967199</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U19" t="n">
-        <v>2127.509210220304</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V19" t="n">
-        <v>1840.553702090735</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W19" t="n">
-        <v>1568.527297677026</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X19" t="n">
-        <v>1323.135543010439</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y19" t="n">
-        <v>1095.715872324547</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1416.332668825485</v>
+        <v>2160.109382130357</v>
       </c>
       <c r="C20" t="n">
-        <v>978.1901960089081</v>
+        <v>1721.96690931378</v>
       </c>
       <c r="D20" t="n">
-        <v>542.2804111833525</v>
+        <v>1286.057124488225</v>
       </c>
       <c r="E20" t="n">
-        <v>108.5056663416477</v>
+        <v>852.28237964652</v>
       </c>
       <c r="F20" t="n">
-        <v>53.81800590148856</v>
+        <v>424.4149500557277</v>
       </c>
       <c r="G20" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H20" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I20" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J20" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K20" t="n">
-        <v>1149.495958523325</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L20" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M20" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N20" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O20" t="n">
-        <v>1293.567921177998</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P20" t="n">
-        <v>1954.407975719777</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q20" t="n">
-        <v>2500.906761678372</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R20" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S20" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T20" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U20" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V20" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W20" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="X20" t="n">
-        <v>2250.918363010739</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="Y20" t="n">
-        <v>1842.632239310392</v>
+        <v>2586.408952615265</v>
       </c>
     </row>
     <row r="21">
@@ -5825,31 +5825,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H21" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I21" t="n">
         <v>79.46488968908616</v>
       </c>
       <c r="J21" t="n">
-        <v>277.7880908295409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K21" t="n">
-        <v>277.7880908295409</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L21" t="n">
-        <v>277.7880908295409</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M21" t="n">
-        <v>938.6281453713193</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N21" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O21" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P21" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q21" t="n">
         <v>1599.468199913098</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>741.4772326516127</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C22" t="n">
-        <v>568.9155211348376</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D22" t="n">
-        <v>403.0375283363603</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E22" t="n">
-        <v>233.2795245870976</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F22" t="n">
-        <v>56.57247054885377</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G22" t="n">
-        <v>53.40121652862857</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H22" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I22" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J22" t="n">
         <v>139.9809016933184</v>
@@ -5922,7 +5922,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N22" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O22" t="n">
         <v>2154.361157596754</v>
@@ -5934,28 +5934,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R22" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S22" t="n">
-        <v>2489.401636434797</v>
+        <v>2545.844385276825</v>
       </c>
       <c r="T22" t="n">
-        <v>2243.522190013252</v>
+        <v>2545.844385276825</v>
       </c>
       <c r="U22" t="n">
-        <v>1965.089189266357</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V22" t="n">
-        <v>1678.133681136788</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W22" t="n">
-        <v>1406.107276723079</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X22" t="n">
-        <v>1160.715522056492</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y22" t="n">
-        <v>933.2958513705998</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1483.445958355599</v>
+        <v>169.5707343603991</v>
       </c>
       <c r="C23" t="n">
-        <v>1483.445958355599</v>
+        <v>169.5707343603991</v>
       </c>
       <c r="D23" t="n">
-        <v>1047.536173530043</v>
+        <v>169.5707343603991</v>
       </c>
       <c r="E23" t="n">
-        <v>613.7614286883381</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="F23" t="n">
-        <v>185.8939990975459</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G23" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H23" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I23" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J23" t="n">
         <v>488.6559039815464</v>
@@ -5995,22 +5995,22 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L23" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M23" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N23" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O23" t="n">
-        <v>1840.066707136593</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P23" t="n">
-        <v>2500.906761678372</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q23" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R23" t="n">
         <v>2670.060826431428</v>
@@ -6019,22 +6019,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T23" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U23" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V23" t="n">
-        <v>2307.443876365255</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W23" t="n">
-        <v>1902.588421776288</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X23" t="n">
-        <v>1483.445958355599</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y23" t="n">
-        <v>1483.445958355599</v>
+        <v>595.8703048453069</v>
       </c>
     </row>
     <row r="24">
@@ -6062,7 +6062,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H24" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I24" t="n">
         <v>79.46488968908616</v>
@@ -6071,25 +6071,25 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K24" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L24" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M24" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N24" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O24" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P24" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q24" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R24" t="n">
         <v>1716.640978007438</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>741.4772326516127</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C25" t="n">
-        <v>568.9155211348376</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D25" t="n">
-        <v>403.0375283363603</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E25" t="n">
-        <v>233.2795245870976</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F25" t="n">
-        <v>56.57247054885377</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G25" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H25" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I25" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J25" t="n">
         <v>139.9809016933184</v>
@@ -6171,28 +6171,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R25" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S25" t="n">
-        <v>2489.401636434797</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T25" t="n">
-        <v>2243.522190013252</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U25" t="n">
-        <v>1965.089189266357</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V25" t="n">
-        <v>1678.133681136788</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W25" t="n">
-        <v>1406.107276723079</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X25" t="n">
-        <v>1160.715522056492</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y25" t="n">
-        <v>933.2958513705998</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>856.821934310757</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="C26" t="n">
-        <v>856.821934310757</v>
+        <v>1306.35999992257</v>
       </c>
       <c r="D26" t="n">
-        <v>744.3459918350084</v>
+        <v>870.4502150970143</v>
       </c>
       <c r="E26" t="n">
-        <v>744.3459918350084</v>
+        <v>870.4502150970143</v>
       </c>
       <c r="F26" t="n">
-        <v>744.3459918350084</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G26" t="n">
-        <v>342.9481604582723</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H26" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I26" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J26" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K26" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L26" t="n">
-        <v>1293.567921177998</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M26" t="n">
-        <v>1293.567921177998</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N26" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O26" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P26" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q26" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R26" t="n">
         <v>2670.060826431428</v>
@@ -6256,22 +6256,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T26" t="n">
-        <v>2366.341725488304</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U26" t="n">
-        <v>2107.119422805321</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V26" t="n">
-        <v>2107.119422805321</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W26" t="n">
-        <v>1702.263968216354</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="X26" t="n">
-        <v>1283.121504795665</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="Y26" t="n">
-        <v>1283.121504795665</v>
+        <v>1744.502472739146</v>
       </c>
     </row>
     <row r="27">
@@ -6299,34 +6299,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H27" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I27" t="n">
         <v>79.46488968908616</v>
       </c>
       <c r="J27" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K27" t="n">
-        <v>79.46488968908616</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L27" t="n">
-        <v>79.46488968908616</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M27" t="n">
-        <v>740.3049442308646</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N27" t="n">
-        <v>1055.800923465659</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O27" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P27" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q27" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R27" t="n">
         <v>1716.640978007438</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>903.8972536055599</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C28" t="n">
-        <v>731.3355420887848</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D28" t="n">
-        <v>565.4575492903075</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E28" t="n">
-        <v>395.6995455410447</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F28" t="n">
-        <v>218.9924915028009</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G28" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H28" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I28" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J28" t="n">
         <v>139.9809016933184</v>
@@ -6408,28 +6408,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R28" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S28" t="n">
-        <v>2651.821657388744</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T28" t="n">
-        <v>2405.942210967199</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U28" t="n">
-        <v>2127.509210220304</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V28" t="n">
-        <v>1840.553702090735</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W28" t="n">
-        <v>1568.527297677026</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X28" t="n">
-        <v>1323.135543010439</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y28" t="n">
-        <v>1095.715872324547</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1617.981460104281</v>
+        <v>1328.851305547497</v>
       </c>
       <c r="C29" t="n">
-        <v>1179.838987287704</v>
+        <v>890.7088327309202</v>
       </c>
       <c r="D29" t="n">
-        <v>743.9292024621484</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="E29" t="n">
-        <v>743.9292024621484</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="F29" t="n">
-        <v>743.9292024621484</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G29" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H29" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I29" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J29" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K29" t="n">
-        <v>714.241271070407</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L29" t="n">
-        <v>801.8819313892767</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M29" t="n">
-        <v>801.8819313892767</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N29" t="n">
-        <v>801.8819313892767</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O29" t="n">
-        <v>1462.721985931055</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P29" t="n">
-        <v>2123.562040472834</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q29" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R29" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S29" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T29" t="n">
-        <v>2366.341725488304</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U29" t="n">
-        <v>2107.119422805321</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V29" t="n">
-        <v>1744.502472739147</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W29" t="n">
-        <v>1744.502472739147</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X29" t="n">
-        <v>1617.981460104281</v>
+        <v>1328.851305547497</v>
       </c>
       <c r="Y29" t="n">
-        <v>1617.981460104281</v>
+        <v>1328.851305547497</v>
       </c>
     </row>
     <row r="30">
@@ -6536,7 +6536,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H30" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I30" t="n">
         <v>79.46488968908616</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>922.1364226482442</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C31" t="n">
-        <v>749.5747111314691</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D31" t="n">
-        <v>583.6967183329918</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E31" t="n">
-        <v>413.9387145837291</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F31" t="n">
-        <v>237.2316605454853</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G31" t="n">
-        <v>71.64038557131298</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H31" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I31" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J31" t="n">
         <v>139.9809016933184</v>
@@ -6645,28 +6645,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R31" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S31" t="n">
-        <v>2670.060826431428</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T31" t="n">
-        <v>2424.181380009883</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U31" t="n">
-        <v>2145.748379262989</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V31" t="n">
-        <v>1858.792871133419</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W31" t="n">
-        <v>1586.766466719711</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X31" t="n">
-        <v>1341.374712053123</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y31" t="n">
-        <v>1113.955041367231</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1196.265441698523</v>
+        <v>1617.981460104281</v>
       </c>
       <c r="C32" t="n">
-        <v>758.1229688819467</v>
+        <v>1179.838987287704</v>
       </c>
       <c r="D32" t="n">
-        <v>758.1229688819467</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E32" t="n">
-        <v>758.1229688819467</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F32" t="n">
-        <v>330.2555392911544</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G32" t="n">
-        <v>53.81800590148856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H32" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I32" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J32" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K32" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L32" t="n">
-        <v>1293.567921177998</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M32" t="n">
-        <v>1293.567921177998</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N32" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O32" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P32" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q32" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R32" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S32" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T32" t="n">
-        <v>2449.993599304467</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U32" t="n">
-        <v>2449.993599304467</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V32" t="n">
-        <v>2449.993599304467</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W32" t="n">
-        <v>2449.993599304467</v>
+        <v>1617.981460104281</v>
       </c>
       <c r="X32" t="n">
-        <v>2030.851135883778</v>
+        <v>1617.981460104281</v>
       </c>
       <c r="Y32" t="n">
-        <v>1622.565012183431</v>
+        <v>1617.981460104281</v>
       </c>
     </row>
     <row r="33">
@@ -6773,7 +6773,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H33" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I33" t="n">
         <v>79.46488968908616</v>
@@ -6849,13 +6849,13 @@
         <v>218.9924915028009</v>
       </c>
       <c r="G34" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H34" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I34" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J34" t="n">
         <v>139.9809016933184</v>
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1182.488464651585</v>
+        <v>931.3608944498332</v>
       </c>
       <c r="C35" t="n">
-        <v>744.3459918350084</v>
+        <v>493.2184216332565</v>
       </c>
       <c r="D35" t="n">
-        <v>744.3459918350084</v>
+        <v>493.2184216332565</v>
       </c>
       <c r="E35" t="n">
-        <v>744.3459918350084</v>
+        <v>59.44367679155164</v>
       </c>
       <c r="F35" t="n">
-        <v>744.3459918350084</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G35" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H35" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I35" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J35" t="n">
         <v>488.6559039815464</v>
@@ -6955,34 +6955,34 @@
         <v>1293.567921177998</v>
       </c>
       <c r="P35" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q35" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R35" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S35" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T35" t="n">
-        <v>2449.993599304467</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U35" t="n">
-        <v>2190.771296621484</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V35" t="n">
-        <v>1828.15434655531</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W35" t="n">
-        <v>1828.15434655531</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X35" t="n">
-        <v>1590.774588351931</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="Y35" t="n">
-        <v>1182.488464651585</v>
+        <v>931.3608944498332</v>
       </c>
     </row>
     <row r="36">
@@ -7010,7 +7010,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H36" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I36" t="n">
         <v>79.46488968908616</v>
@@ -7019,19 +7019,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K36" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L36" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M36" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N36" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O36" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P36" t="n">
         <v>1058.729261281022</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>903.8972536055599</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C37" t="n">
-        <v>731.3355420887848</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D37" t="n">
-        <v>565.4575492903075</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E37" t="n">
-        <v>395.6995455410447</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F37" t="n">
-        <v>218.9924915028009</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G37" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H37" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I37" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J37" t="n">
         <v>139.9809016933184</v>
@@ -7122,25 +7122,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S37" t="n">
-        <v>2651.821657388744</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T37" t="n">
-        <v>2405.942210967199</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U37" t="n">
-        <v>2127.509210220304</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V37" t="n">
-        <v>1840.553702090735</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W37" t="n">
-        <v>1568.527297677026</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X37" t="n">
-        <v>1323.135543010439</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y37" t="n">
-        <v>1095.715872324547</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>927.8702635436207</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="C38" t="n">
-        <v>489.7277907270441</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="D38" t="n">
-        <v>53.81800590148856</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E38" t="n">
-        <v>53.81800590148856</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F38" t="n">
-        <v>53.81800590148856</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G38" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H38" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I38" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J38" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K38" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L38" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M38" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N38" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O38" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P38" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q38" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R38" t="n">
         <v>2670.060826431428</v>
@@ -7207,19 +7207,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U38" t="n">
-        <v>2670.060826431428</v>
+        <v>2548.725264047865</v>
       </c>
       <c r="V38" t="n">
-        <v>2586.453875738531</v>
+        <v>2548.725264047865</v>
       </c>
       <c r="W38" t="n">
-        <v>2181.598421149564</v>
+        <v>2143.869809458898</v>
       </c>
       <c r="X38" t="n">
-        <v>1762.455957728875</v>
+        <v>1724.727346038208</v>
       </c>
       <c r="Y38" t="n">
-        <v>1354.169834028528</v>
+        <v>1316.441222337862</v>
       </c>
     </row>
     <row r="39">
@@ -7247,7 +7247,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H39" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I39" t="n">
         <v>79.46488968908616</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>762.8950539462408</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C40" t="n">
-        <v>590.3333424294657</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D40" t="n">
-        <v>424.4553496309884</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E40" t="n">
-        <v>254.6973458817257</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F40" t="n">
-        <v>77.99029184348186</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G40" t="n">
-        <v>53.40121652862857</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="H40" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I40" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J40" t="n">
         <v>139.9809016933184</v>
@@ -7338,7 +7338,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L40" t="n">
-        <v>832.9492380324152</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M40" t="n">
         <v>1292.433105213328</v>
@@ -7356,28 +7356,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R40" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S40" t="n">
-        <v>2510.819457729425</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.94001130788</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U40" t="n">
-        <v>1986.507010560985</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V40" t="n">
-        <v>1699.551502431416</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W40" t="n">
-        <v>1427.525098017707</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X40" t="n">
-        <v>1182.13334335112</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y40" t="n">
-        <v>954.7136726652279</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1182.071675278725</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C41" t="n">
-        <v>743.9292024621484</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D41" t="n">
-        <v>743.9292024621484</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E41" t="n">
-        <v>743.9292024621484</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F41" t="n">
-        <v>743.9292024621484</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G41" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H41" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I41" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J41" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K41" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L41" t="n">
-        <v>1293.567921177998</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M41" t="n">
-        <v>1293.567921177998</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N41" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O41" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P41" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q41" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R41" t="n">
         <v>2670.060826431428</v>
@@ -7441,22 +7441,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T41" t="n">
-        <v>2366.341725488304</v>
+        <v>2578.012169154339</v>
       </c>
       <c r="U41" t="n">
-        <v>2107.119422805321</v>
+        <v>2578.012169154339</v>
       </c>
       <c r="V41" t="n">
-        <v>1744.502472739147</v>
+        <v>2215.395219088166</v>
       </c>
       <c r="W41" t="n">
-        <v>1339.647018150181</v>
+        <v>2215.395219088166</v>
       </c>
       <c r="X41" t="n">
-        <v>1182.071675278725</v>
+        <v>2215.395219088166</v>
       </c>
       <c r="Y41" t="n">
-        <v>1182.071675278725</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="42">
@@ -7484,7 +7484,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H42" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I42" t="n">
         <v>79.46488968908616</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>762.8950539462408</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C43" t="n">
-        <v>762.8950539462408</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D43" t="n">
-        <v>597.0170611477635</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E43" t="n">
-        <v>535.6017198506702</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F43" t="n">
-        <v>358.8946658124264</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G43" t="n">
-        <v>193.303390838254</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="H43" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I43" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J43" t="n">
         <v>139.9809016933184</v>
@@ -7593,28 +7593,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R43" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S43" t="n">
-        <v>2510.819457729425</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.94001130788</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U43" t="n">
-        <v>1986.507010560985</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V43" t="n">
-        <v>1699.551502431416</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W43" t="n">
-        <v>1427.525098017707</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X43" t="n">
-        <v>1182.13334335112</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y43" t="n">
-        <v>954.7136726652279</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1190.583197132817</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="C44" t="n">
-        <v>752.4407243162404</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="D44" t="n">
-        <v>752.4407243162404</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="E44" t="n">
-        <v>752.4407243162404</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F44" t="n">
         <v>743.9292024621484</v>
@@ -7642,58 +7642,58 @@
         <v>342.5313710854123</v>
       </c>
       <c r="H44" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I44" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J44" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K44" t="n">
-        <v>53.40121652862857</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L44" t="n">
-        <v>714.241271070407</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M44" t="n">
-        <v>714.241271070407</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N44" t="n">
-        <v>714.241271070407</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O44" t="n">
-        <v>1375.081325612186</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P44" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q44" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R44" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S44" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T44" t="n">
-        <v>2366.341725488304</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U44" t="n">
-        <v>2366.341725488304</v>
+        <v>2425.524789658884</v>
       </c>
       <c r="V44" t="n">
-        <v>2003.72477542213</v>
+        <v>2425.524789658884</v>
       </c>
       <c r="W44" t="n">
-        <v>1598.869320833164</v>
+        <v>2425.524789658884</v>
       </c>
       <c r="X44" t="n">
-        <v>1598.869320833164</v>
+        <v>2006.382326238195</v>
       </c>
       <c r="Y44" t="n">
-        <v>1190.583197132817</v>
+        <v>1598.096202537849</v>
       </c>
     </row>
     <row r="45">
@@ -7721,7 +7721,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H45" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I45" t="n">
         <v>79.46488968908616</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>741.4772326516127</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C46" t="n">
-        <v>741.4772326516127</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D46" t="n">
-        <v>575.5992398531354</v>
+        <v>562.2788970383638</v>
       </c>
       <c r="E46" t="n">
-        <v>405.8412361038726</v>
+        <v>392.520893289101</v>
       </c>
       <c r="F46" t="n">
-        <v>358.8946658124264</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="G46" t="n">
-        <v>193.303390838254</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H46" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I46" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J46" t="n">
         <v>139.9809016933184</v>
@@ -7833,25 +7833,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S46" t="n">
-        <v>2489.401636434797</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.522190013252</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U46" t="n">
-        <v>1965.089189266357</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V46" t="n">
-        <v>1678.133681136788</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W46" t="n">
-        <v>1406.107276723079</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X46" t="n">
-        <v>1160.715522056492</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y46" t="n">
-        <v>933.2958513705998</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
   </sheetData>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7993,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -8054,19 +8054,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
-        <v>385.2554146752025</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8142,22 +8142,22 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="N4" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,7 +8218,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8230,7 +8230,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
@@ -8297,10 +8297,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -8376,22 +8376,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>296.5687363523682</v>
+        <v>150.1941962971705</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L8" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O8" t="n">
+      <c r="Q8" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8537,7 +8537,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -8616,22 +8616,22 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>409.401749030468</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>237.6484237362511</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8701,19 +8701,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>424.2958575201044</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q11" t="n">
-        <v>407.1525905495951</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,7 +8771,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8783,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>424.2958575201044</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9005,10 +9005,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>424.2958575201043</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9017,16 +9017,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>262.4693064538403</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>88.52591951400984</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9178,16 +9178,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>667.5152066078572</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,19 +9242,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>200.3264657984391</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L20" t="n">
-        <v>145.5272350047208</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,16 +9415,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P20" t="n">
-        <v>667.5152066078572</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,19 +9479,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>200.3264657984391</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9567,7 +9567,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -9643,22 +9643,22 @@
         <v>667.515206607857</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M23" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>30.03100411261585</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9719,10 +9719,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L24" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>112.1603739174595</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,22 +9877,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O26" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L26" t="n">
-        <v>145.5272350047208</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
       <c r="P26" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
@@ -9953,31 +9953,31 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>318.6828073078733</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L29" t="n">
-        <v>88.52591951400984</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P29" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,22 +10351,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O32" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L32" t="n">
-        <v>145.5272350047208</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
       <c r="P32" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10591,7 +10591,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L35" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10603,7 +10603,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10667,7 +10667,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10825,22 +10825,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O38" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>145.5272350047208</v>
-      </c>
       <c r="P38" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
@@ -11062,22 +11062,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O41" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L41" t="n">
-        <v>145.5272350047208</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
       <c r="P41" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L44" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,10 +11311,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>667.5152066078572</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P44" t="n">
-        <v>585.1784344521125</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -22546,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>59.33415455948301</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>424.8274096022282</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -22609,13 +22609,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>157.5353055613689</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22716,7 +22716,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>77.54146348266089</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -22755,25 +22755,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22786,16 +22786,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>55.01010386435991</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -22804,7 +22804,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22840,16 +22840,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>209.4799141864395</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -22953,7 +22953,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>68.87734684739507</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -22989,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23010,7 +23010,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>72.78996144619879</v>
       </c>
     </row>
     <row r="8">
@@ -23023,25 +23023,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>45.53519377725019</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,22 +23071,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>349.5265853680346</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -23178,10 +23178,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -23190,7 +23190,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>96.88015277411134</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -23235,7 +23235,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23244,7 +23244,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>11.79229658013244</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -23260,25 +23260,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.254829457195569</v>
+        <v>140.8491872347457</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>261.8705427933093</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>153.965203041374</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>229.4233680290249</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>236.4791997122508</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -23503,19 +23503,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>14.02476227955026</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23655,19 +23655,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>83.83779588133126</v>
+        <v>3.14686572942469</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>167.9618746756398</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>238.8685738057837</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23943,7 +23943,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>3.146865729424235</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23980,16 +23980,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>369.4479714591268</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>30.08025687114059</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -24034,10 +24034,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24141,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>34.67467827192613</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>314.4291747398349</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>266.2159983197406</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
         <v>286.2388530112159</v>
@@ -24259,10 +24259,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>160.7958207444076</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>320.1995039263088</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>298.3329527863671</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24502,13 +24502,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
         <v>0.4126214791313976</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24742,10 +24742,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>289.6952362779643</v>
+        <v>321.4479282318249</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H31" t="n">
-        <v>120.4463752142716</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>123.7106950071995</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>275.5510975345598</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25162,19 +25162,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>417.6067196345905</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25216,10 +25216,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>179.9450781651372</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,10 +25447,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>136.5078728964257</v>
       </c>
       <c r="V38" t="n">
-        <v>276.2198993795432</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>139.5921776627258</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>135.3636110865063</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -25681,19 +25681,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.5537392293753</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>258.9514493437413</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25788,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>107.2592358276478</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>135.3636110865063</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -25876,7 +25876,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>415.1623486593332</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>14.5394032513353</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,13 +26034,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>128.4628789093295</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>348830.8383645081</v>
+        <v>490720.6138548364</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>348830.8383645082</v>
+        <v>490720.6138548364</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490720.6138548366</v>
+        <v>490720.6138548364</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>490720.6138548366</v>
+        <v>490720.6138548364</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490720.6138548366</v>
+        <v>490720.6138548364</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490720.6138548366</v>
+        <v>490720.6138548364</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490720.6138548366</v>
+        <v>490720.6138548364</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490720.6138548366</v>
+        <v>490720.6138548364</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490720.6138548366</v>
+        <v>490720.6138548364</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490720.6138548366</v>
+        <v>490720.6138548364</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490720.6138548366</v>
+        <v>490720.6138548364</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>84141.63629345146</v>
+        <v>84141.63629345149</v>
       </c>
       <c r="C2" t="n">
         <v>84141.63629345148</v>
@@ -26322,10 +26322,10 @@
         <v>84141.63629345146</v>
       </c>
       <c r="E2" t="n">
-        <v>84141.63629345148</v>
+        <v>118366.9299602668</v>
       </c>
       <c r="F2" t="n">
-        <v>84141.63629345148</v>
+        <v>118366.9299602668</v>
       </c>
       <c r="G2" t="n">
         <v>118366.9299602668</v>
@@ -26349,7 +26349,7 @@
         <v>118366.9299602668</v>
       </c>
       <c r="N2" t="n">
-        <v>118366.9299602669</v>
+        <v>118366.9299602668</v>
       </c>
       <c r="O2" t="n">
         <v>118366.9299602668</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>72619.94681192302</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>66662.77529471672</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>60611.2346700643</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>58530.97957731679</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>12632.2219864234</v>
       </c>
       <c r="E4" t="n">
-        <v>12632.2219864234</v>
+        <v>17770.48083418234</v>
       </c>
       <c r="F4" t="n">
-        <v>12632.2219864234</v>
+        <v>17770.48083418235</v>
       </c>
       <c r="G4" t="n">
-        <v>17770.48083418235</v>
+        <v>17770.48083418234</v>
       </c>
       <c r="H4" t="n">
         <v>17770.48083418235</v>
@@ -26456,10 +26456,10 @@
         <v>17770.48083418235</v>
       </c>
       <c r="O4" t="n">
-        <v>17770.48083418235</v>
+        <v>17770.48083418234</v>
       </c>
       <c r="P4" t="n">
-        <v>17770.48083418235</v>
+        <v>17770.48083418234</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>59424.78813722234</v>
       </c>
       <c r="E5" t="n">
-        <v>25797.18813722234</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="F5" t="n">
-        <v>25797.18813722234</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="G5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="H5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="I5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="J5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="K5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="L5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="M5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="N5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="O5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="P5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-130106.6744899042</v>
+        <v>-130846.0311018199</v>
       </c>
       <c r="C6" t="n">
-        <v>12084.62616980574</v>
+        <v>11345.26955789009</v>
       </c>
       <c r="D6" t="n">
-        <v>12084.62616980572</v>
+        <v>11345.26955789006</v>
       </c>
       <c r="E6" t="n">
-        <v>45712.22616980574</v>
+        <v>-13103.3124761775</v>
       </c>
       <c r="F6" t="n">
-        <v>45712.22616980574</v>
+        <v>59516.6343357455</v>
       </c>
       <c r="G6" t="n">
-        <v>-6651.250730389947</v>
+        <v>59516.63433574552</v>
       </c>
       <c r="H6" t="n">
-        <v>60011.52456432678</v>
+        <v>59516.6343357455</v>
       </c>
       <c r="I6" t="n">
-        <v>60011.52456432678</v>
+        <v>59516.63433574549</v>
       </c>
       <c r="J6" t="n">
-        <v>-51002.94078066338</v>
+        <v>-51497.83100924467</v>
       </c>
       <c r="K6" t="n">
-        <v>60011.52456432677</v>
+        <v>59516.6343357455</v>
       </c>
       <c r="L6" t="n">
-        <v>60011.52456432678</v>
+        <v>59516.63433574549</v>
       </c>
       <c r="M6" t="n">
-        <v>60011.52456432677</v>
+        <v>-1094.600334318806</v>
       </c>
       <c r="N6" t="n">
-        <v>60011.5245643268</v>
+        <v>59516.63433574549</v>
       </c>
       <c r="O6" t="n">
-        <v>1480.544987009984</v>
+        <v>59516.63433574552</v>
       </c>
       <c r="P6" t="n">
-        <v>60011.52456432677</v>
+        <v>59516.63433574552</v>
       </c>
     </row>
   </sheetData>
@@ -26798,40 +26798,40 @@
         <v>424.2958575201043</v>
       </c>
       <c r="E4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="F4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="G4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="H4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="I4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
     </row>
   </sheetData>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>243.2193490877526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>243.2193490877527</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>243.2193490877526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>243.2193490877527</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>243.2193490877526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>243.2193490877527</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34698,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34713,7 +34713,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -34774,19 +34774,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
-        <v>385.2554146752025</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34798,7 +34798,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34862,22 +34862,22 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="N4" t="n">
-        <v>424.2958575201044</v>
-      </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34950,7 +34950,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
@@ -35017,10 +35017,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,10 +35029,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -35096,22 +35096,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>296.5687363523682</v>
+        <v>150.1941962971705</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L8" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O8" t="n">
+      <c r="Q8" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35257,7 +35257,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35269,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -35336,22 +35336,22 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>409.401749030468</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>237.6484237362511</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35421,19 +35421,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>424.2958575201044</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q11" t="n">
-        <v>407.1525905495951</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35503,13 +35503,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>424.2958575201044</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697544</v>
@@ -35725,10 +35725,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>424.2958575201043</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35737,16 +35737,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>262.4693064538403</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>88.52591951400984</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -35898,16 +35898,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>667.5152066078572</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>200.3264657984391</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L20" t="n">
-        <v>145.5272350047208</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -36135,16 +36135,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P20" t="n">
-        <v>667.5152066078572</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>200.3264657984391</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36287,13 +36287,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36363,22 +36363,22 @@
         <v>667.515206607857</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M23" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>30.03100411261585</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697544</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L24" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36454,13 +36454,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>112.1603739174595</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,22 +36597,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O26" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L26" t="n">
-        <v>145.5272350047208</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
       <c r="P26" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157523</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>318.6828073078733</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36831,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L29" t="n">
-        <v>88.52591951400984</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -36846,16 +36846,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P29" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37071,22 +37071,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O32" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L32" t="n">
-        <v>145.5272350047208</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
       <c r="P32" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37311,7 +37311,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L35" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -37323,7 +37323,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37402,7 +37402,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37545,22 +37545,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O38" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>145.5272350047208</v>
-      </c>
       <c r="P38" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37706,10 +37706,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -37782,22 +37782,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O41" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L41" t="n">
-        <v>145.5272350047208</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
       <c r="P41" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L44" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38031,10 +38031,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>667.5152066078572</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P44" t="n">
-        <v>585.1784344521125</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
